--- a/NformTester/NformTester/Keywordscripts/600.10.10.10_GUIForDeviceStatusPolling.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.10.10_GUIForDeviceStatusPolling.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8003" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8003" uniqueCount="881">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3945,6 +3945,10 @@
   </si>
   <si>
     <t>Globally_disabled_txt</t>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4476,7 +4480,7 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4604,7 +4608,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>838</v>
+        <v>880</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>254</v>

--- a/NformTester/NformTester/Keywordscripts/600.10.10.10_GUIForDeviceStatusPolling.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.10.10_GUIForDeviceStatusPolling.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8003" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8005" uniqueCount="883">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3948,6 +3948,14 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4114,7 +4122,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4125,8 +4133,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4166,10 +4177,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4480,7 +4496,7 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5156,6 +5172,12 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14">
+      <c r="A23" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>882</v>
+      </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
@@ -6621,7 +6643,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F75:F82 F9:F74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F9:F82">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G80:G82 G2:G78">

--- a/NformTester/NformTester/Keywordscripts/600.10.10.10_GUIForDeviceStatusPolling.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.10.10_GUIForDeviceStatusPolling.xlsx
@@ -3955,7 +3955,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
+    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_license.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4496,7 +4496,7 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/Keywordscripts/600.10.10.10_GUIForDeviceStatusPolling.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.10.10_GUIForDeviceStatusPolling.xlsx
@@ -3955,8 +3955,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_license.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -4496,7 +4495,7 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/Keywordscripts/600.10.10.10_GUIForDeviceStatusPolling.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.10.10_GUIForDeviceStatusPolling.xlsx
@@ -3864,98 +3864,98 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Script Info</t>
+  </si>
+  <si>
+    <t>Script Data</t>
+  </si>
+  <si>
+    <t>Test Object</t>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Running Range</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;The goal of this test is to check the GUI for device status polling on device properties window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Select 'Priority' for global on Server options window and verify in device property window.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Select 'Daily' for global on Server options window and verify in device property window.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Select 'interval' for global on Server options window and verify in device property window.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Select 'Disabled' for global on Server options window and verify in device property window.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Globally disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Globally_disabled_txt</t>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
+  </si>
+  <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Script Info</t>
-  </si>
-  <si>
-    <t>Script Data</t>
-  </si>
-  <si>
-    <t>Test Object</t>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Create Date</t>
-  </si>
-  <si>
-    <t>Update Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Running Range</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Zoe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;The goal of this test is to check the GUI for device status polling on device properties window</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Select 'Priority' for global on Server options window and verify in device property window.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Select 'Daily' for global on Server options window and verify in device property window.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Select 'interval' for global on Server options window and verify in device property window.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Select 'Disabled' for global on Server options window and verify in device property window.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Globally disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Globally_disabled_txt</t>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pre-condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -4494,8 +4494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4512,10 +4512,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>815</v>
@@ -4556,10 +4556,10 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4580,10 +4580,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4614,16 +4614,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>254</v>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B5" s="8">
         <v>41837</v>
@@ -4653,7 +4653,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4668,10 +4668,10 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4714,10 +4714,10 @@
         <v>846</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>856</v>
+        <v>881</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>857</v>
+        <v>882</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>847</v>
@@ -4732,14 +4732,14 @@
     </row>
     <row r="8" spans="1:14" ht="15">
       <c r="A8" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="4"/>
@@ -4754,7 +4754,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
@@ -5037,7 +5037,7 @@
         <v>7</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>852</v>
@@ -5071,7 +5071,7 @@
         <v>7</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>852</v>
@@ -5172,10 +5172,10 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="17" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C23" s="4">
         <v>22</v>
@@ -5283,7 +5283,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="4"/>
@@ -5535,7 +5535,7 @@
         <v>7</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>852</v>
@@ -5727,7 +5727,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="4"/>
@@ -5979,7 +5979,7 @@
         <v>7</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>852</v>
@@ -6171,7 +6171,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="4"/>
@@ -6387,19 +6387,19 @@
         <v>571</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>852</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
